--- a/Testdokumentation/IntegrationstestsJonas.xlsx
+++ b/Testdokumentation/IntegrationstestsJonas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\Testdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Testdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4593F66D-E2F8-4ABA-B8FD-2ACA45CF5598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE80644-98C9-45C1-95FF-99D67BABA65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="198">
   <si>
     <t>Leonid Surface</t>
   </si>
@@ -525,13 +525,103 @@
   </si>
   <si>
     <t>Firefox for Ubuntu 121.0 (64 Bit)</t>
+  </si>
+  <si>
+    <t>Ab hier geht’s nochmal von vorne los:</t>
+  </si>
+  <si>
+    <t>Im Folgenden werden die Felder des Tic-Tac-Toe-Spielfelds wie bei einem Telefon-Ziffernblock benannt. Beispielsweise beschreibt Feld 5 das Feld in der Mitte.</t>
+  </si>
+  <si>
+    <t>Es wird im DropDown-Menü eine Liste aller möglichen Spieler angezeigt. Die Optionen sind: "Mensch", "KI-Elimination", "KI-Rückführung", "KI-Elimination v2.0"</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Über dem Spielfeld steht "X Mensch" und "O KI-Elimination". Der Graph zeigt das leere Feld und zeigt die drei Spielfelder mit jeweils einem Kreuz besetzt an (besetzt sind jeweils unterschiedlich Feld 1, 2 oder 3). Das leere Feld hat jeweils eine Verbindung zu den anderen drei Spielfeldern. Diesen Graph nennen wir Graph im Ausgangszustand.</t>
+  </si>
+  <si>
+    <t>Während dem gesamten Spielablauf wurden nur Pixel-Fonts für alle Schriften verwendet.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "Einstellungen".</t>
+  </si>
+  <si>
+    <t>Der Nutzer spielt den Test: Standardablauf/Epic durch.</t>
+  </si>
+  <si>
+    <t>Während dem gesamten Spielablauf wurde abgesehen von den Überschriften "TIK TAC TOE" nur die Standard-Font für Schriften verwendet.</t>
+  </si>
+  <si>
+    <t>Test: Wisch- und Zoomgesten auf dem Tablet</t>
+  </si>
+  <si>
+    <t>Test: Digital-Font-Toggle</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "Spiel".</t>
+  </si>
+  <si>
+    <t>Test: Zwei KIs - Weight-Toggle</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 1 "KI-Elimination v2.0", für Spieler 2 "KI-Elimination" und klickt auf das Feld "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den "Play"-Button, stellt den Slider nach ganz rechts und wartet, bis das Spiel vorbei ist.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Toggle-Switch mit der Beschriftung "Benutze digital Font".</t>
+  </si>
+  <si>
+    <t>Der runde Knubbel des Toggle-Switchs bewegt sich nach links. Alle Schriften verwenden jetzt kein Pixel-Font mehr, sondern eine Standard-Font.</t>
+  </si>
+  <si>
+    <t>Im Graph wird oben links ein Toggle-Switch angezeigt. Links daneben steht "X", rechts daneben "O". Der Knubbel des Toggle-Switchs ist links platziert. Alle Gewichte sind rot bis auf die Gewichte der tatsächlich getätigten Züge, welche orange markiert sind.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Toggle-Switch.</t>
+  </si>
+  <si>
+    <t>Falls es ein Unentschieden war, starte den Test erneut.</t>
+  </si>
+  <si>
+    <t>Der Knubbel des Toggle-Switch wechselt nach rechts. Alle Gewichte im Graph, die vorher rot waren, sind jetzt blau.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den "Belohnen"-Button.</t>
+  </si>
+  <si>
+    <t>Im Graphen ändert sich das Gewicht des vorletzten getätigten Zuges zu 0. Alle 1er Gewichte werden blau, alle 0er Gewichte grün angezeigt.</t>
+  </si>
+  <si>
+    <t>Im Graphen werden potentiell andere Gewichte angezeigt. Alle 1er Gewichte werden rot, alle 0er Gewichte grün angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wischt auf dem Tablet von links nach rechts und von rechts nach links.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den "Spiel starten"-Button.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wischt von oben nach unten.</t>
+  </si>
+  <si>
+    <t>Es ändert sich nichts. Insbesondere lädt die Seite nicht neu.</t>
+  </si>
+  <si>
+    <t>Test: Fehlerrückführung-Gewichte ändern und Gewichte-Reset</t>
+  </si>
+  <si>
+    <t>Test: Desktop/Laptop Fenster-Größe verändern</t>
+  </si>
+  <si>
+    <t>Test: Tablet wechseln zwischen Hoch- und Querformat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +641,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,6 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -896,22 +995,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="145.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -919,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -927,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -935,7 +1036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -943,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -951,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -959,7 +1060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -967,7 +1068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -975,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -983,7 +1084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -991,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -999,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1007,7 +1108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1015,7 +1116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1023,7 +1124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1039,7 +1140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1047,7 +1148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1055,7 +1156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1063,7 +1164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1071,18 +1172,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1090,7 +1191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1098,7 +1199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1106,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1122,12 +1223,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1135,17 +1236,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1161,7 +1262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1169,7 +1270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -1177,7 +1278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1185,7 +1286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1193,22 +1294,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1216,13 +1317,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -1230,7 +1331,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -1238,7 +1339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -1246,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -1254,7 +1355,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1262,7 +1363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1270,17 +1371,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -1288,7 +1389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -1296,23 +1397,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1320,12 +1421,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -1333,7 +1434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -1341,17 +1442,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -1359,58 +1460,58 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1418,28 +1519,28 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -1447,28 +1548,28 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -1476,28 +1577,28 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1505,28 +1606,28 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -1534,28 +1635,28 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -1563,28 +1664,28 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>95</v>
       </c>
@@ -1592,13 +1693,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -1606,7 +1707,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -1614,7 +1715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -1622,12 +1723,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>81</v>
       </c>
@@ -1635,12 +1736,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -1648,12 +1749,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -1661,12 +1762,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>120</v>
       </c>
@@ -1674,7 +1775,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -1682,12 +1783,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -1695,19 +1796,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -1715,7 +1816,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -1723,7 +1824,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -1731,7 +1832,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -1739,7 +1840,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>134</v>
       </c>
@@ -1747,7 +1848,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>126</v>
       </c>
@@ -1755,7 +1856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>136</v>
       </c>
@@ -1763,7 +1864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -1771,7 +1872,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -1779,7 +1880,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>134</v>
       </c>
@@ -1787,7 +1888,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -1795,17 +1896,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -1813,13 +1914,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -1827,7 +1928,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -1835,12 +1936,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -1848,7 +1949,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -1856,33 +1957,33 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -1890,13 +1991,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>160</v>
       </c>
@@ -1904,7 +2005,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>44</v>
       </c>
@@ -1912,12 +2013,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>39</v>
       </c>
@@ -1925,7 +2026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -1933,7 +2034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -1941,7 +2042,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>44</v>
       </c>
@@ -1949,7 +2050,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -1957,12 +2058,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -1970,7 +2071,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -1978,7 +2079,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>47</v>
       </c>
@@ -1986,12 +2087,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +2100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>41</v>
       </c>
@@ -2007,12 +2108,314 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>39</v>
       </c>
       <c r="B179" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>29</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>33</v>
+      </c>
+      <c r="B197" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B199" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>39</v>
+      </c>
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>41</v>
+      </c>
+      <c r="B201" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B202" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>44</v>
+      </c>
+      <c r="B203" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>48</v>
+      </c>
+      <c r="B206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>182</v>
+      </c>
+      <c r="B214" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>174</v>
+      </c>
+      <c r="B216" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>191</v>
+      </c>
+      <c r="B219" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>192</v>
+      </c>
+      <c r="B220" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>193</v>
+      </c>
+      <c r="B221" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>181</v>
+      </c>
+      <c r="B225" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>185</v>
+      </c>
+      <c r="B227" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>185</v>
+      </c>
+      <c r="B229" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2027,18 +2430,18 @@
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2473,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2105,7 +2508,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2543,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2169,6 +2572,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:S3"/>
@@ -2185,14 +2596,6 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdokumentation/IntegrationstestsJonas.xlsx
+++ b/Testdokumentation/IntegrationstestsJonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Testdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE80644-98C9-45C1-95FF-99D67BABA65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E46E4E-07F8-4111-A201-C2E840DB5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
   <si>
     <t>Leonid Surface</t>
   </si>
@@ -536,9 +536,6 @@
     <t>Es wird im DropDown-Menü eine Liste aller möglichen Spieler angezeigt. Die Optionen sind: "Mensch", "KI-Elimination", "KI-Rückführung", "KI-Elimination v2.0"</t>
   </si>
   <si>
-    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Über dem Spielfeld steht "X Mensch" und "O KI-Elimination". Der Graph zeigt das leere Feld und zeigt die drei Spielfelder mit jeweils einem Kreuz besetzt an (besetzt sind jeweils unterschiedlich Feld 1, 2 oder 3). Das leere Feld hat jeweils eine Verbindung zu den anderen drei Spielfeldern. Diesen Graph nennen wir Graph im Ausgangszustand.</t>
-  </si>
-  <si>
     <t>Während dem gesamten Spielablauf wurden nur Pixel-Fonts für alle Schriften verwendet.</t>
   </si>
   <si>
@@ -608,13 +605,64 @@
     <t>Es ändert sich nichts. Insbesondere lädt die Seite nicht neu.</t>
   </si>
   <si>
-    <t>Test: Fehlerrückführung-Gewichte ändern und Gewichte-Reset</t>
-  </si>
-  <si>
     <t>Test: Desktop/Laptop Fenster-Größe verändern</t>
   </si>
   <si>
     <t>Test: Tablet wechseln zwischen Hoch- und Querformat</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Über dem Spielfeld steht "X Mensch" und "O KI-Elimination". Der Graph zeigt das leere Feld und zeigt die drei Spielfelder mit jeweils einem Kreuz besetzt an (besetzt sind jeweils unterschiedlich Feld 1, 2 und 3). Das leere Feld hat jeweils eine Verbindung zu den anderen drei Spielfeldern. Diesen Graph nennen wir Graph im Ausgangszustand.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf Feld 5.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Der Graph zeigt zusätzlich zu bisher zwei weitere Spielfelder. Das Spielfeld mit einem Kreuz auf Feld 5 ist verbunden mit dem Spielfeld mit einem zusätzlichen Kreis auf Feld 1 und dem Spielfeld mit einem zusätzlichen Kreis auf Feld 2, wobei die beiden letztgenannten Verbindungen mit jeweils einer blauen 1 markiert sind.</t>
+  </si>
+  <si>
+    <t>Sobald das Spiel beendet ist, wird das Spielergebnis angezeigt. Das kann die Form haben: "Unentschieden!", "Spieler 1 gewinnt!", "Spieler 2 gewinnt!". Im Graph wird der Verlauf des Spiels angezeigt, wobei alle Verbindungen mit 1en versehen werden. Alle 1en, welche die getätigten Spielzüge repräsentieren, sind orange. Alle anderen 1en sind blau. Unter dem Spielfeld tauchen die Buttons "Belohnen" und "Überspringen" auf.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das Feld "Belohnen".</t>
+  </si>
+  <si>
+    <t>Die Gewichte des Graphen ändern sich, falls kein Unentschieden stattgefunden hat. Das geänderte Gewicht ist jetzt eine 0 und wird grün angezeigt. Alle 1en werden blau angezeigt.</t>
+  </si>
+  <si>
+    <t>Es wird in die Einstellungen-Ansicht gewechselt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf die Checkbox "Start überspringen".</t>
+  </si>
+  <si>
+    <t>Es wird in die Start-Ansicht gewechselt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "Spiel und Graph".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "Einstellungen" und dann auf die Checkbox "Automatische Belohnung".</t>
+  </si>
+  <si>
+    <t>Sobald das Spiel beendet ist, wird für kurze Zeit das Spielergebnis angzeigt. Daraufhin wird das Spielfeld geleert und der Graph wird in den Ausgangszustand gebracht.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "Einstellungen" und dann auf die Checkbox "Start überspringen".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "Spiel und Graph" und wechselt dann damit ab, auf ein beliebiges freies Spielfeld zu klicken und auf den Zug der KI zu warten, bis das Spiel beendet ist.</t>
+  </si>
+  <si>
+    <t>Sobald das Spiel beendet ist, wird kurz das Endergebnis angezeigt und dann in die Startansicht gewechselt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "KIs".</t>
+  </si>
+  <si>
+    <t>Es öffnet sich das KI-Übersichtsfenster.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Button "Reset" in der Zeile von "KI-Elimination".</t>
   </si>
 </sst>
 </file>
@@ -686,10 +734,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -995,10 +1043,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2168,15 +2216,15 @@
         <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -2208,36 +2256,36 @@
         <v>37</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="B202" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
         <v>45</v>
@@ -2245,34 +2293,31 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>44</v>
-      </c>
-      <c r="B207" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2280,142 +2325,161 @@
         <v>48</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B210" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>182</v>
-      </c>
-      <c r="B214" t="s">
-        <v>183</v>
+      <c r="B213" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>178</v>
+      <c r="A215" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>174</v>
-      </c>
-      <c r="B216" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>181</v>
+      </c>
+      <c r="B217" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>176</v>
+      <c r="A218" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>173</v>
+      </c>
+      <c r="B219" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>190</v>
+      </c>
+      <c r="B222" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>191</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B223" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>192</v>
-      </c>
-      <c r="B220" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>193</v>
-      </c>
-      <c r="B221" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>181</v>
-      </c>
-      <c r="B225" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="B224" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>186</v>
+      <c r="A226" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>185</v>
-      </c>
-      <c r="B227" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B228" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>185</v>
       </c>
-      <c r="B229" t="s">
-        <v>190</v>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>184</v>
+      </c>
+      <c r="B230" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="4" t="s">
+      <c r="A231" t="s">
+        <v>187</v>
+      </c>
+      <c r="B231" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>184</v>
+      </c>
+      <c r="B232" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2442,144 +2506,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:S3"/>
@@ -2596,6 +2652,14 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdokumentation/IntegrationstestsJonas.xlsx
+++ b/Testdokumentation/IntegrationstestsJonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Testdokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E46E4E-07F8-4111-A201-C2E840DB5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59B66A2-4832-4A30-AEDD-B5501073981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="230">
   <si>
     <t>Leonid Surface</t>
   </si>
@@ -663,13 +663,61 @@
   </si>
   <si>
     <t>Der Nutzer klickt auf den Button "Reset" in der Zeile von "KI-Elimination".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Navigations-Button "Einstellungen", aktiviert die Checkboxen  "Start überspringen" und "Automatische Belohnung" und klickt auf den Navigations-Button "Spiel und Graph".</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für beide Spieler "KI-Elimination" und klickt auf den Button "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den "Play"-Button.</t>
+  </si>
+  <si>
+    <t>Die Elemente der Website passen sich dynamisch an die veränderte Größe des Fensters an. Es gibt keine Zeilenumbrüche. Ab einer bestimmten Größe rutscht der Graph unter das Spielfeld.</t>
+  </si>
+  <si>
+    <t>Der Nutzer verkleinert sukzessive sein Fenster in der Horizontale bis es nicht mehr geht.</t>
+  </si>
+  <si>
+    <t>Der Nutzer stellt sein Fenster so ein, dass es den kompletten Bildschirm belegt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer vergrößert sein Fenster in der Horizontale bis es den gesamten Bildschirm belegt.</t>
+  </si>
+  <si>
+    <t>Die Elemente der Website passen sich dynamisch an die veränderte Größe des Fensters an. Es gibt keine Zeilenumbrüche. Ab einer bestimmten Größe rutscht der Graph wieder rechts neben das Spielfeld.</t>
+  </si>
+  <si>
+    <t>Während dem gesamten Test läuft das Spiel normal weiter. Die KIs setzen weiterhin auf das Spielfeld, bis das Spiel beendet ist, neugestartet wird und das ganze von vorne beginnt. Der Graph wird laufend aktualisiert.</t>
+  </si>
+  <si>
+    <t>Der Nutzer dreht sein Tablet ins Querformat.</t>
+  </si>
+  <si>
+    <t>Der Graph wird rechts neben dem Spielfeld angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer dreht sein Tablet ins Hochformat.</t>
+  </si>
+  <si>
+    <t>Der Graph rutscht unter das Spielfeld.</t>
+  </si>
+  <si>
+    <t>Der Nutzer dreht sein Tablet zurück ins Querformat.</t>
+  </si>
+  <si>
+    <t>Der Graph rutscht zurück rechts neben das Spielfeld.</t>
+  </si>
+  <si>
+    <t>Während dem gesamten Test läuft das Spiel normal weiter. Die KIs setzen weiterhin auf das Spielfeld, bis das Spiel beendet ist, neugestartet wird und das ganze von vorne beginnt. Der Graph wird laufend aktualisiert. Beim Drehen des Tablets gibt es keine zusätzlichen Zeilenumbrüche und jedes Element hat weiterhin genug Platz, um gut sichtbar dargestellt zu werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +742,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -726,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,6 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1043,10 +1098,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2477,9 +2532,94 @@
         <v>194</v>
       </c>
     </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>215</v>
+      </c>
+    </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="A236" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B239" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>220</v>
+      </c>
+      <c r="B240" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>215</v>
+      </c>
+      <c r="B245" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>225</v>
+      </c>
+      <c r="B248" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>227</v>
+      </c>
+      <c r="B249" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2636,6 +2776,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:S3"/>
@@ -2652,14 +2800,6 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
